--- a/Request formats.xlsx
+++ b/Request formats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>ORG type</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>bytes</t>
+  </si>
+  <si>
+    <t>ElevatorInputPacket</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Request formats.xlsx
+++ b/Request formats.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\the_l\Documents\School\2018-2019\SYSC 3303\Project\Repository\SYSC_3303_Project_Group_7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulpatel/git/SYSC_3303_Project_Group_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780DD933-22A7-EB4C-8BAD-8469F9F42198}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,9 +99,6 @@
     <t xml:space="preserve">Open/closed </t>
   </si>
   <si>
-    <t>up/dwn (toggle)</t>
-  </si>
-  <si>
     <t>Floor # (toggle)</t>
   </si>
   <si>
@@ -108,12 +106,15 @@
   </si>
   <si>
     <t>ElevatorInputPacket</t>
+  </si>
+  <si>
+    <t>Floor #,up/dwn (toggle)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,19 +432,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -467,7 +476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -481,7 +490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -489,24 +498,24 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -517,18 +526,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -536,7 +545,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
